--- a/eval/dumps/indirect_load.xlsx
+++ b/eval/dumps/indirect_load.xlsx
@@ -425,7 +425,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>4190</t>
+          <t>413C</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -475,12 +475,12 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>000B</t>
+          <t>000C</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>0008</t>
+          <t>0002</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
@@ -500,14 +500,14 @@
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>F108</t>
+          <t>92B0</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4190</t>
+          <t>413C</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>F108</t>
+          <t>92B0</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>16784</v>
+        <v>16700</v>
       </c>
       <c r="B1" t="n">
         <v>11222</v>
@@ -637,10 +637,10 @@
         <v>0</v>
       </c>
       <c r="K1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M1" t="n">
         <v>960</v>
@@ -652,12 +652,12 @@
         <v>61696</v>
       </c>
       <c r="P1" t="n">
-        <v>61704</v>
+        <v>37552</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16784</v>
+        <v>16700</v>
       </c>
       <c r="B2" t="n">
         <v>11222</v>
@@ -702,7 +702,7 @@
         <v>61697</v>
       </c>
       <c r="P2" t="n">
-        <v>61704</v>
+        <v>37552</v>
       </c>
     </row>
   </sheetData>
